--- a/Media/策划还原案/字典表设计/技能字典表/技能字典表.xlsx
+++ b/Media/策划还原案/字典表设计/技能字典表/技能字典表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="8880" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="18760" yWindow="3840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能级别</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能类型：
+1:基础技能
+2:主技能</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +85,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长弓兵</t>
+    <t>穿透力</t>
+  </si>
+  <si>
+    <t>抗穿透</t>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持盾武士</t>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火术士</t>
+    <t>连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +146,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -480,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -491,71 +541,119 @@
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>20001</v>
+        <v>30001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>20002</v>
+        <v>30002</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>20003</v>
+        <v>30003</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>20004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>30004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>20005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>20006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>30006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>20008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>30008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>20009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>30009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>20010</v>
+        <v>30010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>30011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>30012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>30013</v>
       </c>
     </row>
   </sheetData>
